--- a/medicine/Enfance/Yomad/Yomad.xlsx
+++ b/medicine/Enfance/Yomad/Yomad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yomad est la première maison d'édition marocaine spécialisée dans la littérature jeunesse. Basée à Rabat, elle a été créée en 1998. Ses publications sont en français, en arabe et en amazighe.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1998 par Nadia Bouayad et Nadia Essalmi[1], jusqu'à la création de Yanbow Al Kitab, en 2006, Yomad a été la seule maison d'édition jeunesse du pays[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1998 par Nadia Bouayad et Nadia Essalmi, jusqu'à la création de Yanbow Al Kitab, en 2006, Yomad a été la seule maison d'édition jeunesse du pays.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Auteurs primés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses auteurs ou illustrateurs, quatre ont reçu un prix Grand Atlas pour des ouvrages édités en son sein : 
 Habib Mazini pour La Révolte du 30 février (catégorie « Jeunesse - Auteur ») ;
-Alexis Logié pour Salem et le Sorcier (catégorie « Jeunesse - Illustrateur »), en 2001[3] ;
-Fouad Laroui (texte) et Pierre Léger (illustration) pour La Meilleure Façon d’attraper les choses (catégorie « Jeunesse »), en 2005[4].</t>
+Alexis Logié pour Salem et le Sorcier (catégorie « Jeunesse - Illustrateur »), en 2001 ;
+Fouad Laroui (texte) et Pierre Léger (illustration) pour La Meilleure Façon d’attraper les choses (catégorie « Jeunesse »), en 2005.</t>
         </is>
       </c>
     </row>
